--- a/OR FP.xlsx
+++ b/OR FP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38287602-0E1D-4249-A02A-D35DC3BC16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1AAA83-1A10-4C8B-980E-E51982AEC293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23775" yWindow="2535" windowWidth="20250" windowHeight="17250" xr2:uid="{32E298F6-2245-49C7-8377-49048090F699}"/>
+    <workbookView xWindow="-26445" yWindow="1440" windowWidth="26055" windowHeight="18675" activeTab="1" xr2:uid="{32E298F6-2245-49C7-8377-49048090F699}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Price EUR</t>
   </si>
@@ -57,14 +58,93 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>A&amp;P</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -91,11 +171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -436,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1399E210-E485-423D-ABD1-9C61D9E6AFA6}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -450,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>300</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.2">
@@ -470,7 +557,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>161106.31169999999</v>
+        <v>211586.28936599998</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.2">
@@ -503,7 +590,513 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>152457.61169999998</v>
+        <v>202937.58936599997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2CFE8A-E3EE-4A1D-B2A5-0BAFE2F6C181}">
+  <dimension ref="A1:Z18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2">
+        <v>2020</v>
+      </c>
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="T2">
+        <f>+S2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:Z2" si="0">+T2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="S3" s="5">
+        <v>32287.599999999999</v>
+      </c>
+      <c r="T3" s="5">
+        <v>38260.6</v>
+      </c>
+      <c r="U3" s="5">
+        <v>41182.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="S4" s="2">
+        <v>8433.2999999999993</v>
+      </c>
+      <c r="T4" s="2">
+        <v>10577.4</v>
+      </c>
+      <c r="U4" s="2">
+        <v>10767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="S5" s="2">
+        <f t="shared" ref="S5:T5" si="1">+S3-S4</f>
+        <v>23854.3</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="1"/>
+        <v>27683.199999999997</v>
+      </c>
+      <c r="U5" s="2">
+        <f>+U3-U4</f>
+        <v>30415.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="S6" s="2">
+        <v>1028.7</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1138.5999999999999</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1288.9000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="S7" s="2">
+        <v>10591</v>
+      </c>
+      <c r="T7" s="2">
+        <v>12059</v>
+      </c>
+      <c r="U7" s="2">
+        <v>13356.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="S8" s="2">
+        <v>6074.2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>7028.8</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7626.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="S9" s="2">
+        <f t="shared" ref="S9:T9" si="2">+S6+S7+S8</f>
+        <v>17693.900000000001</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="2"/>
+        <v>20226.400000000001</v>
+      </c>
+      <c r="U9" s="2">
+        <f>+U6+U7+U8</f>
+        <v>22272.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="S10" s="2">
+        <f t="shared" ref="S10:T10" si="3">+S5-S9</f>
+        <v>6160.3999999999978</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="3"/>
+        <v>7456.7999999999956</v>
+      </c>
+      <c r="U10" s="2">
+        <f>+U5-U9</f>
+        <v>8143.2999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="S11" s="2">
+        <f>-432-19.4+378.3-40.2</f>
+        <v>-113.29999999999997</v>
+      </c>
+      <c r="T11" s="2">
+        <f>-241.5-0.6+468.2-72.3</f>
+        <v>153.80000000000001</v>
+      </c>
+      <c r="U11" s="2">
+        <f>-449.9-226.7+162.1-48.8+420.98</f>
+        <v>-142.31999999999982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="S12" s="2">
+        <f>+S10+S11</f>
+        <v>6047.0999999999976</v>
+      </c>
+      <c r="T12" s="2">
+        <f>+T10+T11</f>
+        <v>7610.5999999999958</v>
+      </c>
+      <c r="U12" s="2">
+        <f>+U10+U11</f>
+        <v>8000.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="S13" s="2">
+        <f>1445.4-0.6</f>
+        <v>1444.8000000000002</v>
+      </c>
+      <c r="T13" s="2">
+        <f>1899.4-1.4</f>
+        <v>1898</v>
+      </c>
+      <c r="U13" s="2">
+        <f>1810.6-0.2</f>
+        <v>1810.3999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="S14" s="2">
+        <f>+S12-S13</f>
+        <v>4602.2999999999975</v>
+      </c>
+      <c r="T14" s="2">
+        <f>+T12-T13</f>
+        <v>5712.5999999999958</v>
+      </c>
+      <c r="U14" s="2">
+        <f>+U12-U13</f>
+        <v>6190.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="S16" s="2">
+        <v>6728.4</v>
+      </c>
+      <c r="T16" s="2">
+        <v>6278.3</v>
+      </c>
+      <c r="U16" s="2">
+        <v>7604.6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="S17" s="2">
+        <v>1075.2</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1343.2</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1488.7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="S18" s="2">
+        <f>+S16-S17</f>
+        <v>5653.2</v>
+      </c>
+      <c r="T18" s="2">
+        <f>+T16-T17</f>
+        <v>4935.1000000000004</v>
+      </c>
+      <c r="U18" s="2">
+        <f>+U16-U17</f>
+        <v>6115.9000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/OR FP.xlsx
+++ b/OR FP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1AAA83-1A10-4C8B-980E-E51982AEC293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B624D89B-D21F-46D9-A091-000A4D36A2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="1440" windowWidth="26055" windowHeight="18675" activeTab="1" xr2:uid="{32E298F6-2245-49C7-8377-49048090F699}"/>
+    <workbookView xWindow="55430" yWindow="3720" windowWidth="21420" windowHeight="16260" xr2:uid="{32E298F6-2245-49C7-8377-49048090F699}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Price EUR</t>
   </si>
@@ -130,13 +130,43 @@
   </si>
   <si>
     <t>Net Income</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Luxe</t>
+  </si>
+  <si>
+    <t>Derm</t>
+  </si>
+  <si>
+    <t>Skincare</t>
+  </si>
+  <si>
+    <t>Make-up</t>
+  </si>
+  <si>
+    <t>Haircare</t>
+  </si>
+  <si>
+    <t>Hair Colorants</t>
+  </si>
+  <si>
+    <t>Perfumes</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -147,6 +177,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -168,10 +205,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -185,8 +223,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,74 +564,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1399E210-E485-423D-ABD1-9C61D9E6AFA6}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>537.02103899999997</v>
+        <v>536.07843100000002</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>211586.28936599998</v>
-      </c>
-    </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.2">
+        <v>183338.82340200001</v>
+      </c>
+    </row>
+    <row r="5" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>4288.1+27+11631.6</f>
-        <v>15946.7</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="2">
-        <f>459.8+2091.5+4746.7</f>
-        <v>7298</v>
+        <v>-4442.7</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>202937.58936599997</v>
+        <v>178896.123402</v>
       </c>
     </row>
   </sheetData>
@@ -600,28 +639,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2CFE8A-E3EE-4A1D-B2A5-0BAFE2F6C181}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -659,70 +698,73 @@
         <v>19</v>
       </c>
       <c r="R2">
+        <v>2019</v>
+      </c>
+      <c r="S2">
         <v>2020</v>
-      </c>
-      <c r="S2">
-        <f>+R2+1</f>
-        <v>2021</v>
       </c>
       <c r="T2">
         <f>+S2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="U2">
+        <f>+T2+1</f>
         <v>2022</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:Z2" si="0">+T2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:AA2" si="0">+U2+1</f>
         <v>2023</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="S3" s="5">
-        <v>32287.599999999999</v>
-      </c>
-      <c r="T3" s="5">
-        <v>38260.6</v>
-      </c>
-      <c r="U3" s="5">
-        <v>41182.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="U3" s="2">
+        <v>4476.8</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4653.8999999999996</v>
+      </c>
+      <c r="W3" s="2">
+        <v>4886.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -736,19 +778,19 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="S4" s="2">
-        <v>8433.2999999999993</v>
-      </c>
-      <c r="T4" s="2">
-        <v>10577.4</v>
-      </c>
       <c r="U4" s="2">
-        <v>10767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>14021.3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>15172.7</v>
+      </c>
+      <c r="W4" s="2">
+        <v>15982.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -762,22 +804,19 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="S5" s="2">
-        <f t="shared" ref="S5:T5" si="1">+S3-S4</f>
-        <v>23854.3</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" si="1"/>
-        <v>27683.199999999997</v>
-      </c>
       <c r="U5" s="2">
-        <f>+U3-U4</f>
-        <v>30415.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>14638.1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>14924</v>
+      </c>
+      <c r="W5" s="2">
+        <v>15591.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -791,20 +830,17 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="S6" s="2">
-        <v>1028.7</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1138.5999999999999</v>
-      </c>
       <c r="U6" s="2">
-        <v>1288.9000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>5124.5</v>
+      </c>
+      <c r="V6" s="2">
+        <v>6432</v>
+      </c>
+      <c r="W6" s="2">
+        <v>7027.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -817,19 +853,10 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="S7" s="2">
-        <v>10591</v>
-      </c>
-      <c r="T7" s="2">
-        <v>12059</v>
-      </c>
-      <c r="U7" s="2">
-        <v>13356.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -843,19 +870,19 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="S8" s="2">
-        <v>6074.2</v>
-      </c>
-      <c r="T8" s="2">
-        <v>7028.8</v>
-      </c>
       <c r="U8" s="2">
-        <v>7626.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15344</v>
+      </c>
+      <c r="V8" s="2">
+        <v>16447</v>
+      </c>
+      <c r="W8" s="2">
+        <v>16803.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -869,22 +896,19 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="S9" s="2">
-        <f t="shared" ref="S9:T9" si="2">+S6+S7+S8</f>
-        <v>17693.900000000001</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="2"/>
-        <v>20226.400000000001</v>
-      </c>
       <c r="U9" s="2">
-        <f>+U6+U7+U8</f>
-        <v>22272.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7739</v>
+      </c>
+      <c r="V9" s="2">
+        <v>8124</v>
+      </c>
+      <c r="W9" s="2">
+        <v>8449.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -898,22 +922,19 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="S10" s="2">
-        <f t="shared" ref="S10:T10" si="3">+S5-S9</f>
-        <v>6160.3999999999978</v>
-      </c>
-      <c r="T10" s="2">
-        <f t="shared" si="3"/>
-        <v>7456.7999999999956</v>
-      </c>
       <c r="U10" s="2">
-        <f>+U5-U9</f>
-        <v>8143.2999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5750</v>
+      </c>
+      <c r="V10" s="2">
+        <v>6320</v>
+      </c>
+      <c r="W10" s="2">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -927,22 +948,19 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="S11" s="2">
-        <f>-432-19.4+378.3-40.2</f>
-        <v>-113.29999999999997</v>
-      </c>
-      <c r="T11" s="2">
-        <f>-241.5-0.6+468.2-72.3</f>
-        <v>153.80000000000001</v>
-      </c>
       <c r="U11" s="2">
-        <f>-449.9-226.7+162.1-48.8+420.98</f>
-        <v>-142.31999999999982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3362</v>
+      </c>
+      <c r="V11" s="2">
+        <v>3426</v>
+      </c>
+      <c r="W11" s="2">
+        <v>3460.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -956,22 +974,19 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="S12" s="2">
-        <f>+S10+S11</f>
-        <v>6047.0999999999976</v>
-      </c>
-      <c r="T12" s="2">
-        <f>+T10+T11</f>
-        <v>7610.5999999999958</v>
-      </c>
       <c r="U12" s="2">
-        <f>+U10+U11</f>
-        <v>8000.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4546</v>
+      </c>
+      <c r="V12" s="2">
+        <v>5171</v>
+      </c>
+      <c r="W12" s="2">
+        <v>5955.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -985,49 +1000,84 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="S13" s="2">
-        <f>1445.4-0.6</f>
-        <v>1444.8000000000002</v>
-      </c>
-      <c r="T13" s="2">
-        <f>1899.4-1.4</f>
-        <v>1898</v>
-      </c>
       <c r="U13" s="2">
-        <f>1810.6-0.2</f>
-        <v>1810.3999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="S14" s="2">
-        <f>+S12-S13</f>
-        <v>4602.2999999999975</v>
-      </c>
-      <c r="T14" s="2">
-        <f>+T12-T13</f>
-        <v>5712.5999999999958</v>
-      </c>
-      <c r="U14" s="2">
-        <f>+U12-U13</f>
-        <v>6190.58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1520</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1695</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1783.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="R14" s="5">
+        <v>29874</v>
+      </c>
+      <c r="S14" s="5">
+        <v>27992</v>
+      </c>
+      <c r="T14" s="5">
+        <v>32287.599999999999</v>
+      </c>
+      <c r="U14" s="5">
+        <v>38260.6</v>
+      </c>
+      <c r="V14" s="5">
+        <v>41182.5</v>
+      </c>
+      <c r="W14" s="5">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="T15" s="2">
+        <v>8433.2999999999993</v>
+      </c>
+      <c r="U15" s="2">
+        <v>10577.4</v>
+      </c>
+      <c r="V15" s="2">
+        <v>10767</v>
+      </c>
+      <c r="W15" s="2">
+        <v>11227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1040,17 +1090,27 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="S16" s="2">
-        <v>6728.4</v>
-      </c>
       <c r="T16" s="2">
-        <v>6278.3</v>
+        <f t="shared" ref="T16:U16" si="1">+T14-T15</f>
+        <v>23854.3</v>
       </c>
       <c r="U16" s="2">
-        <v>7604.6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>27683.199999999997</v>
+      </c>
+      <c r="V16" s="2">
+        <f>+V14-V15</f>
+        <v>30415.5</v>
+      </c>
+      <c r="W16" s="2">
+        <f>+W14-W15</f>
+        <v>32260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1063,17 +1123,23 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="S17" s="2">
-        <v>1075.2</v>
-      </c>
       <c r="T17" s="2">
-        <v>1343.2</v>
+        <v>1028.7</v>
       </c>
       <c r="U17" s="2">
-        <v>1488.7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1138.5999999999999</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1288.9000000000001</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1354.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1086,20 +1152,345 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="S18" s="2">
-        <f>+S16-S17</f>
+      <c r="T18" s="2">
+        <v>10591</v>
+      </c>
+      <c r="U18" s="2">
+        <v>12059</v>
+      </c>
+      <c r="V18" s="2">
+        <v>13356.6</v>
+      </c>
+      <c r="W18" s="2">
+        <v>14008.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="T19" s="2">
+        <v>6074.2</v>
+      </c>
+      <c r="U19" s="2">
+        <v>7028.8</v>
+      </c>
+      <c r="V19" s="2">
+        <v>7626.7</v>
+      </c>
+      <c r="W19" s="2">
+        <v>8208.7000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="T20" s="2">
+        <f t="shared" ref="T20:U20" si="2">+T17+T18+T19</f>
+        <v>17693.900000000001</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="2"/>
+        <v>20226.400000000001</v>
+      </c>
+      <c r="V20" s="2">
+        <f>+V17+V18+V19</f>
+        <v>22272.2</v>
+      </c>
+      <c r="W20" s="2">
+        <f>+W17+W18+W19</f>
+        <v>23572.300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="T21" s="2">
+        <f t="shared" ref="T21:U21" si="3">+T16-T20</f>
+        <v>6160.3999999999978</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="3"/>
+        <v>7456.7999999999956</v>
+      </c>
+      <c r="V21" s="2">
+        <f>+V16-V20</f>
+        <v>8143.2999999999993</v>
+      </c>
+      <c r="W21" s="2">
+        <f>+W16-W20</f>
+        <v>8687.6999999999971</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="T22" s="2">
+        <f>-432-19.4+378.3-40.2</f>
+        <v>-113.29999999999997</v>
+      </c>
+      <c r="U22" s="2">
+        <f>-241.5-0.6+468.2-72.3</f>
+        <v>153.80000000000001</v>
+      </c>
+      <c r="V22" s="2">
+        <f>-449.9-226.7+162.1-48.8+420.98</f>
+        <v>-142.31999999999982</v>
+      </c>
+      <c r="W22" s="2">
+        <v>-224.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="T23" s="2">
+        <f>+T21+T22</f>
+        <v>6047.0999999999976</v>
+      </c>
+      <c r="U23" s="2">
+        <f>+U21+U22</f>
+        <v>7610.5999999999958</v>
+      </c>
+      <c r="V23" s="2">
+        <f>+V21+V22</f>
+        <v>8000.98</v>
+      </c>
+      <c r="W23" s="2">
+        <f>+W21+W22</f>
+        <v>8462.9999999999964</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="T24" s="2">
+        <f>1445.4-0.6</f>
+        <v>1444.8000000000002</v>
+      </c>
+      <c r="U24" s="2">
+        <f>1899.4-1.4</f>
+        <v>1898</v>
+      </c>
+      <c r="V24" s="2">
+        <f>1810.6-0.2</f>
+        <v>1810.3999999999999</v>
+      </c>
+      <c r="W24" s="2">
+        <v>2015.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="T25" s="2">
+        <f>+T23-T24</f>
+        <v>4602.2999999999975</v>
+      </c>
+      <c r="U25" s="2">
+        <f>+U23-U24</f>
+        <v>5712.5999999999958</v>
+      </c>
+      <c r="V25" s="2">
+        <f>+V23-V24</f>
+        <v>6190.58</v>
+      </c>
+      <c r="W25" s="2">
+        <f>+W23-W24</f>
+        <v>6447.899999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="T27" s="2">
+        <v>6728.4</v>
+      </c>
+      <c r="U27" s="2">
+        <v>6278.3</v>
+      </c>
+      <c r="V27" s="2">
+        <v>7604.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="T28" s="2">
+        <v>1075.2</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1343.2</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1488.7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="T29" s="2">
+        <f>+T27-T28</f>
         <v>5653.2</v>
       </c>
-      <c r="T18" s="2">
-        <f>+T16-T17</f>
+      <c r="U29" s="2">
+        <f>+U27-U28</f>
         <v>4935.1000000000004</v>
       </c>
-      <c r="U18" s="2">
-        <f>+U16-U17</f>
+      <c r="V29" s="2">
+        <f>+V27-V28</f>
         <v>6115.9000000000005</v>
       </c>
+      <c r="W29" s="2">
+        <v>6644.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="S32" s="8">
+        <f>+S14/R14-1</f>
+        <v>-6.29979246167236E-2</v>
+      </c>
+      <c r="T32" s="8">
+        <f>+T14/S14-1</f>
+        <v>0.1534581308945413</v>
+      </c>
+      <c r="U32" s="8">
+        <f>+U14/T14-1</f>
+        <v>0.18499361984167306</v>
+      </c>
+      <c r="V32" s="8">
+        <f>+V14/U14-1</f>
+        <v>7.63683789590337E-2</v>
+      </c>
+      <c r="W32" s="8">
+        <f>+W14/V14-1</f>
+        <v>5.5958234687063735E-2</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6A0FFA45-B82F-49E2-A523-F8946CB480C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>